--- a/Solution_recipes/Biochemistry_solutions/Total_protein_extraction_buffer.xlsx
+++ b/Solution_recipes/Biochemistry_solutions/Total_protein_extraction_buffer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Yackzan\Documents\SOPs_&amp;_Recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Solution_recipes\Biochemistry_solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A6E907-40A9-4382-8C3E-E3DAD299817D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE760F8-DF73-4E76-ADAA-6F9D41E855B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="90" windowWidth="13845" windowHeight="15390" xr2:uid="{96F58327-1853-4573-BD34-A5EE02F45ABF}"/>
   </bookViews>
@@ -23,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>10mM EDTA</t>
   </si>
@@ -100,9 +91,6 @@
   </si>
   <si>
     <t>6mM Tris</t>
-  </si>
-  <si>
-    <t>HCl added (mL)</t>
   </si>
   <si>
     <r>
@@ -177,9 +165,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>NaOH added (mL)</t>
   </si>
   <si>
     <r>
@@ -251,6 +236,9 @@
       </rPr>
       <t>When titrating, some temporary salt formation can be seen after acid/base added. Salts will quickly dissolve back into solution.</t>
     </r>
+  </si>
+  <si>
+    <t>Titrant (NaOH / HCl) added (μL)</t>
   </si>
 </sst>
 </file>
@@ -503,87 +491,59 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
@@ -655,24 +615,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -696,6 +638,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,8 +1070,8 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1134,26 +1094,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="31" t="s">
-        <v>26</v>
+      <c r="I1" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="J1" s="3"/>
-      <c r="K1" s="31" t="s">
-        <v>23</v>
+      <c r="K1" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="31" t="s">
-        <v>22</v>
+      <c r="M1" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1183,15 +1143,15 @@
       <c r="H2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="25"/>
       <c r="L2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="31"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1346,280 +1306,277 @@
     </row>
     <row r="6" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:15" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="24"/>
+      <c r="I7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="30"/>
-      <c r="I7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-    </row>
-    <row r="8" spans="1:15" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-    </row>
-    <row r="11" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="19"/>
       <c r="F13" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="15"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="24"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="20"/>
       <c r="F14" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="14"/>
       <c r="F15" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-    </row>
-    <row r="16" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="14"/>
       <c r="F16" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-    </row>
-    <row r="17" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="14"/>
       <c r="F17" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-    </row>
-    <row r="18" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="14"/>
       <c r="F18" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="13"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="12"/>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="1:15" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C8:D13"/>
-    <mergeCell ref="C14:D19"/>
+  <mergeCells count="7">
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I7:O19"/>
+    <mergeCell ref="C8:D19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" orientation="landscape" r:id="rId1"/>

--- a/Solution_recipes/Biochemistry_solutions/Total_protein_extraction_buffer.xlsx
+++ b/Solution_recipes/Biochemistry_solutions/Total_protein_extraction_buffer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Solution_recipes\Biochemistry_solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Yackzan\Documents\SOPs_&amp;_Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE760F8-DF73-4E76-ADAA-6F9D41E855B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A6E907-40A9-4382-8C3E-E3DAD299817D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="90" windowWidth="13845" windowHeight="15390" xr2:uid="{96F58327-1853-4573-BD34-A5EE02F45ABF}"/>
   </bookViews>
@@ -23,12 +23,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>10mM EDTA</t>
   </si>
@@ -91,6 +100,9 @@
   </si>
   <si>
     <t>6mM Tris</t>
+  </si>
+  <si>
+    <t>HCl added (mL)</t>
   </si>
   <si>
     <r>
@@ -165,6 +177,9 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>NaOH added (mL)</t>
   </si>
   <si>
     <r>
@@ -236,9 +251,6 @@
       </rPr>
       <t>When titrating, some temporary salt formation can be seen after acid/base added. Salts will quickly dissolve back into solution.</t>
     </r>
-  </si>
-  <si>
-    <t>Titrant (NaOH / HCl) added (μL)</t>
   </si>
 </sst>
 </file>
@@ -491,59 +503,87 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
@@ -615,6 +655,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -638,24 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1094,26 +1134,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="25" t="s">
-        <v>25</v>
+      <c r="I1" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="J1" s="3"/>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1143,15 +1183,15 @@
       <c r="H2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1306,277 +1346,280 @@
     </row>
     <row r="6" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:15" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="24"/>
-      <c r="I7" s="27" t="s">
+      <c r="A7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="30"/>
+      <c r="I7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-    </row>
-    <row r="8" spans="1:15" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-    </row>
-    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-    </row>
-    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="19"/>
       <c r="F13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+    </row>
+    <row r="14" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-    </row>
-    <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="24"/>
       <c r="E14" s="20"/>
       <c r="F14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-    </row>
-    <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="14"/>
       <c r="F15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-    </row>
-    <row r="16" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="14"/>
       <c r="F16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-    </row>
-    <row r="17" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="14"/>
       <c r="F17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+    </row>
+    <row r="18" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="14"/>
       <c r="F18" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" s="13"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
     </row>
     <row r="19" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="12"/>
       <c r="F19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
     </row>
     <row r="20" spans="1:15" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C8:D13"/>
+    <mergeCell ref="C14:D19"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I7:O19"/>
-    <mergeCell ref="C8:D19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
